--- a/docs/oncocore-TNMStagePanelMember.xlsx
+++ b/docs/oncocore-TNMStagePanelMember.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="392">
   <si>
     <t>Path</t>
   </si>
@@ -423,96 +423,30 @@
     <t>open</t>
   </si>
   <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Recorder-extension]]} {[]}
+    <t>relatedcancercondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-RelatedCancerCondition-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The recorder of the information, if other than the information originator. For example, the nurse taking a list of medications reported by the patient.</t>
-  </si>
-  <si>
-    <t>focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Focus-extension]]} {[]}
+    <t>Cancer condition this information relates to.</t>
+  </si>
+  <si>
+    <t>cancerstagetiming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerStageTiming-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The entity this condition or observation relates to, for example, a related person. The Focus is only required if the person or thing observed is different than the patient. Focus should not be an anatomical location. Examples: The focus for cancer progression would be the cancer condition; for wound length, an instance of a wound (a condition).</t>
-  </si>
-  <si>
-    <t>Observation.extension.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Observation.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Focus-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-DomainResource]]}
-CodeableConcept {[]} {[]}</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>cancerstagetiming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/oncocore-CancerStageTiming-extension]]} {[]}
-</t>
-  </si>
-  <si>
     <t>Indicates when staging was done, in terms of treatment landmarks.</t>
   </si>
   <si>
     <t>cancerstagesuffix</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/oncocore-CancerStageSuffix-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerStageSuffix-extension]]} {[]}
 </t>
   </si>
   <si>
@@ -635,7 +569,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Patient]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
 </t>
   </si>
   <si>
@@ -665,7 +599,7 @@
     <t>Observation.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-encounter-Encounter]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -739,7 +673,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Practitioner], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Organization], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Patient], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-RelatedPerson]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
 </t>
   </si>
   <si>
@@ -841,6 +775,10 @@
     <t>Observation.comments</t>
   </si>
   <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Comments about result</t>
   </si>
   <si>
@@ -980,7 +918,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Device]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
@@ -1194,7 +1132,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Observation]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
 </t>
   </si>
   <si>
@@ -1445,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM77"/>
+  <dimension ref="A1:AM72"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1454,44 +1392,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.37890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.5546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="94.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="26.15625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="26.734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="128.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="102.734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.0078125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="124.46875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3282,7 +3220,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>51</v>
@@ -3378,9 +3316,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3403,9 +3343,7 @@
       <c r="J19" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>62</v>
-      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
         <v>138</v>
       </c>
@@ -3458,13 +3396,13 @@
         <v>42</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>42</v>
@@ -3476,7 +3414,7 @@
         <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>42</v>
@@ -3484,24 +3422,24 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>42</v>
@@ -3510,12 +3448,14 @@
         <v>67</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M20" s="2"/>
+      <c r="M20" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
@@ -3563,15 +3503,11 @@
       <c r="AD20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE20" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3582,7 +3518,7 @@
         <v>42</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>42</v>
@@ -3590,7 +3526,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3598,10 +3534,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>42</v>
@@ -3613,85 +3549,83 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" s="2"/>
+      <c r="N21" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE21" s="2"/>
+      <c r="AF21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG21" s="2"/>
+      <c r="AH21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="R21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AL21" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" hidden="true">
@@ -3713,22 +3647,24 @@
         <v>42</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3752,13 +3688,13 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3775,15 +3711,11 @@
       <c r="AD22" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE22" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3791,28 +3723,26 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>42</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>51</v>
@@ -3827,13 +3757,17 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="K23" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="L23" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3858,13 +3792,13 @@
         <v>42</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>42</v>
@@ -3881,15 +3815,11 @@
       <c r="AD23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE23" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
@@ -3900,25 +3830,23 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>51</v>
@@ -3930,17 +3858,21 @@
         <v>42</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K24" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="L24" t="s" s="2">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3964,13 +3896,13 @@
         <v>42</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>42</v>
@@ -3987,15 +3919,11 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="AE24" s="2"/>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG24" s="2"/>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -4003,52 +3931,54 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I25" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4095,11 +4025,15 @@
       <c r="AD25" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE25" s="2"/>
+      <c r="AE25" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG25" s="2"/>
+      <c r="AG25" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4107,18 +4041,18 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>42</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4129,7 +4063,7 @@
         <v>40</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
@@ -4141,17 +4075,17 @@
         <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -4211,18 +4145,18 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>169</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4230,7 +4164,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
@@ -4239,23 +4173,25 @@
         <v>42</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="N27" t="s" s="2">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>42</v>
@@ -4280,13 +4216,13 @@
         <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4315,18 +4251,18 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4346,19 +4282,19 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4384,13 +4320,13 @@
         <v>42</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>42</v>
@@ -4419,18 +4355,18 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4438,10 +4374,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4453,17 +4389,17 @@
         <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
@@ -4488,13 +4424,13 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>42</v>
@@ -4523,18 +4459,18 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4557,19 +4493,19 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>42</v>
@@ -4629,18 +4565,18 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>205</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4663,17 +4599,19 @@
         <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
@@ -4698,13 +4636,11 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X31" s="2"/>
       <c r="Y31" t="s" s="2">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -4727,28 +4663,28 @@
       </c>
       <c r="AG31" s="2"/>
       <c r="AH31" t="s" s="2">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>213</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4764,22 +4700,20 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -4804,13 +4738,13 @@
         <v>42</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>42</v>
@@ -4839,18 +4773,18 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>222</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4870,21 +4804,21 @@
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -4943,18 +4877,18 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>229</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4965,7 +4899,7 @@
         <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>42</v>
@@ -4974,20 +4908,22 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="N34" t="s" s="2">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5012,13 +4948,11 @@
         <v>42</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>42</v>
@@ -5036,13 +4970,13 @@
         <v>42</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>42</v>
@@ -5051,18 +4985,18 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>237</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5082,23 +5016,19 @@
         <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5157,10 +5087,10 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5168,18 +5098,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -5191,20 +5121,18 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>246</v>
+        <v>68</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5228,11 +5156,13 @@
         <v>42</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X36" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y36" t="s" s="2">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>42</v>
@@ -5255,16 +5185,16 @@
       </c>
       <c r="AG36" s="2"/>
       <c r="AH36" t="s" s="2">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>42</v>
@@ -5272,18 +5202,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
@@ -5292,20 +5222,22 @@
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>180</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5330,13 +5262,13 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>259</v>
+        <v>42</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5365,10 +5297,10 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>42</v>
@@ -5376,7 +5308,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5396,20 +5328,22 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N38" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5469,10 +5403,10 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>42</v>
@@ -5480,7 +5414,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5491,7 +5425,7 @@
         <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5503,19 +5437,19 @@
         <v>42</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5540,11 +5474,11 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>273</v>
+        <v>90</v>
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
@@ -5561,15 +5495,11 @@
       <c r="AD39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE39" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="AE39" s="2"/>
       <c r="AF39" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG39" s="2"/>
       <c r="AH39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5577,10 +5507,10 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>42</v>
@@ -5588,7 +5518,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5599,7 +5529,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5611,15 +5541,17 @@
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5667,11 +5599,15 @@
       <c r="AD40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5679,10 +5615,10 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>64</v>
+        <v>287</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5690,18 +5626,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5713,16 +5649,16 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>67</v>
+        <v>289</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>68</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>69</v>
+        <v>291</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>70</v>
+        <v>292</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5771,11 +5707,15 @@
       <c r="AD41" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE41" s="2"/>
+      <c r="AE41" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG41" s="2"/>
+      <c r="AG41" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5783,10 +5723,10 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>42</v>
+        <v>293</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>64</v>
+        <v>294</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5794,7 +5734,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5805,7 +5745,7 @@
         <v>40</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -5814,22 +5754,22 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -5877,22 +5817,26 @@
       <c r="AD42" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE42" s="2"/>
+      <c r="AE42" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG42" s="2"/>
+      <c r="AG42" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>42</v>
+        <v>301</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -5900,7 +5844,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5920,23 +5864,19 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>287</v>
+        <v>62</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -5995,10 +5935,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>292</v>
+        <v>64</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -6006,18 +5946,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6029,20 +5969,18 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>294</v>
+        <v>68</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>295</v>
+        <v>69</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6066,11 +6004,13 @@
         <v>42</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X44" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y44" t="s" s="2">
-        <v>298</v>
+        <v>42</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>42</v>
@@ -6099,10 +6039,10 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>300</v>
+        <v>64</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6110,39 +6050,39 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>302</v>
+        <v>67</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>303</v>
+        <v>140</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>305</v>
+        <v>70</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6191,15 +6131,11 @@
       <c r="AD45" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE45" t="s" s="2">
-        <v>301</v>
-      </c>
+      <c r="AE45" s="2"/>
       <c r="AF45" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG45" s="2"/>
       <c r="AH45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6207,10 +6143,10 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>307</v>
+        <v>125</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6218,7 +6154,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6229,7 +6165,7 @@
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6241,17 +6177,15 @@
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M46" t="s" s="2">
         <v>312</v>
       </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
@@ -6299,26 +6233,22 @@
       <c r="AD46" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE46" t="s" s="2">
-        <v>308</v>
-      </c>
+      <c r="AE46" s="2"/>
       <c r="AF46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG46" s="2"/>
       <c r="AH46" t="s" s="2">
-        <v>42</v>
+        <v>313</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6326,7 +6256,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6337,7 +6267,7 @@
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
@@ -6349,7 +6279,7 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>317</v>
@@ -6357,12 +6287,8 @@
       <c r="L47" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6409,26 +6335,22 @@
       <c r="AD47" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE47" t="s" s="2">
-        <v>315</v>
-      </c>
+      <c r="AE47" s="2"/>
       <c r="AF47" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG47" s="2"/>
       <c r="AH47" t="s" s="2">
-        <v>42</v>
+        <v>313</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6436,7 +6358,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6459,16 +6381,20 @@
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>62</v>
+        <v>321</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6492,13 +6418,13 @@
         <v>42</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>42</v>
+        <v>326</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>42</v>
@@ -6527,10 +6453,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6538,18 +6464,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>42</v>
@@ -6561,18 +6487,18 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>67</v>
+        <v>329</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>68</v>
+        <v>330</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6634,7 +6560,7 @@
         <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6642,40 +6568,38 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>327</v>
+        <v>42</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -6735,10 +6659,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6746,7 +6670,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6757,7 +6681,7 @@
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
@@ -6766,19 +6690,23 @@
         <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6825,22 +6753,26 @@
       <c r="AD51" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE51" s="2"/>
+      <c r="AE51" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG51" s="2"/>
+      <c r="AG51" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH51" t="s" s="2">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6848,7 +6780,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6871,13 +6803,13 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>337</v>
+        <v>62</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>338</v>
+        <v>63</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6933,16 +6865,16 @@
       </c>
       <c r="AG52" s="2"/>
       <c r="AH52" t="s" s="2">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>334</v>
+        <v>42</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>339</v>
+        <v>64</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>42</v>
@@ -6950,18 +6882,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
@@ -6973,20 +6905,18 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>341</v>
+        <v>68</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>342</v>
+        <v>69</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7010,13 +6940,13 @@
         <v>42</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>345</v>
+        <v>42</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>42</v>
@@ -7045,10 +6975,10 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>347</v>
+        <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>42</v>
@@ -7056,41 +6986,41 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>349</v>
+        <v>67</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7152,7 +7082,7 @@
         <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>353</v>
+        <v>125</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>42</v>
@@ -7160,7 +7090,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7183,22 +7113,26 @@
         <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>42</v>
+        <v>353</v>
       </c>
       <c r="R55" t="s" s="2">
         <v>42</v>
@@ -7216,13 +7150,13 @@
         <v>42</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>42</v>
@@ -7251,10 +7185,10 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>334</v>
+        <v>125</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>42</v>
@@ -7262,7 +7196,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7270,10 +7204,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7282,10 +7216,10 @@
         <v>42</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>359</v>
@@ -7293,12 +7227,8 @@
       <c r="L56" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>362</v>
-      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7345,15 +7275,11 @@
       <c r="AD56" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE56" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="AE56" s="2"/>
       <c r="AF56" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7361,10 +7287,10 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>42</v>
@@ -7372,7 +7298,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7383,7 +7309,7 @@
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7392,19 +7318,23 @@
         <v>42</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>53</v>
+        <v>296</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>62</v>
+        <v>363</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7451,11 +7381,15 @@
       <c r="AD57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE57" s="2"/>
+      <c r="AE57" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG57" s="2"/>
+      <c r="AG57" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7463,10 +7397,10 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>64</v>
+        <v>367</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7474,18 +7408,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
@@ -7497,17 +7431,15 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -7578,11 +7510,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>327</v>
+        <v>66</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7595,7 +7527,7 @@
         <v>42</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>42</v>
@@ -7604,10 +7536,10 @@
         <v>67</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>328</v>
+        <v>69</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>70</v>
@@ -7674,7 +7606,7 @@
         <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7682,49 +7614,47 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>369</v>
+        <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>373</v>
+        <v>42</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>42</v>
@@ -7742,13 +7672,13 @@
         <v>42</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>374</v>
+        <v>42</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>375</v>
+        <v>42</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>42</v>
@@ -7777,10 +7707,10 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -7788,7 +7718,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7808,19 +7738,21 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>378</v>
+        <v>159</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
       </c>
@@ -7844,13 +7776,13 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -7873,24 +7805,24 @@
       </c>
       <c r="AG61" s="2"/>
       <c r="AH61" t="s" s="2">
-        <v>42</v>
+        <v>374</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>381</v>
+        <v>174</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7901,7 +7833,7 @@
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
@@ -7913,19 +7845,19 @@
         <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>316</v>
+        <v>376</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>384</v>
+        <v>219</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>385</v>
+        <v>221</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>42</v>
@@ -7973,15 +7905,11 @@
       <c r="AD62" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE62" t="s" s="2">
-        <v>382</v>
-      </c>
+      <c r="AE62" s="2"/>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
         <v>42</v>
       </c>
@@ -7989,10 +7917,10 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>386</v>
+        <v>222</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>387</v>
+        <v>223</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8000,7 +7928,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8023,16 +7951,20 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>62</v>
+        <v>380</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8056,13 +7988,11 @@
         <v>42</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8085,16 +8015,16 @@
       </c>
       <c r="AG63" s="2"/>
       <c r="AH63" t="s" s="2">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>64</v>
+        <v>231</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8102,11 +8032,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8125,18 +8055,20 @@
         <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>67</v>
+        <v>296</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>68</v>
+        <v>383</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>69</v>
+        <v>298</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8195,10 +8127,10 @@
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>64</v>
+        <v>303</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8206,40 +8138,38 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>327</v>
+        <v>42</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8302,7 +8232,7 @@
         <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8310,18 +8240,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
@@ -8330,21 +8260,21 @@
         <v>42</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>392</v>
+        <v>68</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8368,13 +8298,13 @@
         <v>42</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>42</v>
@@ -8397,60 +8327,58 @@
       </c>
       <c r="AG66" s="2"/>
       <c r="AH66" t="s" s="2">
-        <v>394</v>
+        <v>42</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>194</v>
+        <v>42</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>195</v>
+        <v>64</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>196</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>396</v>
+        <v>67</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>397</v>
+        <v>140</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8509,10 +8437,10 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>244</v>
+        <v>125</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8520,7 +8448,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8543,20 +8471,16 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>180</v>
+        <v>310</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8580,11 +8504,13 @@
         <v>42</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X68" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y68" t="s" s="2">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>42</v>
@@ -8607,16 +8533,16 @@
       </c>
       <c r="AG68" s="2"/>
       <c r="AH68" t="s" s="2">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>125</v>
+        <v>314</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8624,7 +8550,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8635,7 +8561,7 @@
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
@@ -8647,20 +8573,16 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>403</v>
+        <v>317</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
       </c>
@@ -8713,16 +8635,16 @@
       </c>
       <c r="AG69" s="2"/>
       <c r="AH69" t="s" s="2">
-        <v>42</v>
+        <v>313</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8730,7 +8652,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8753,16 +8675,20 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>62</v>
+        <v>321</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
@@ -8786,13 +8712,13 @@
         <v>42</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>42</v>
+        <v>326</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>42</v>
@@ -8821,10 +8747,10 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>42</v>
+        <v>327</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -8832,18 +8758,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>42</v>
@@ -8855,18 +8781,18 @@
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>67</v>
+        <v>329</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>68</v>
+        <v>330</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
       </c>
@@ -8928,7 +8854,7 @@
         <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>42</v>
@@ -8936,40 +8862,38 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>327</v>
+        <v>42</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>42</v>
@@ -9029,533 +8953,17 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>125</v>
+        <v>337</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE73" s="2"/>
-      <c r="AF73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG73" s="2"/>
-      <c r="AH73" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE74" s="2"/>
-      <c r="AF74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG74" s="2"/>
-      <c r="AH74" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE75" s="2"/>
-      <c r="AF75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG75" s="2"/>
-      <c r="AH75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE76" s="2"/>
-      <c r="AF76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG76" s="2"/>
-      <c r="AH76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE77" s="2"/>
-      <c r="AF77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG77" s="2"/>
-      <c r="AH77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AL77" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL77">
+  <autoFilter ref="A1:AL72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9565,7 +8973,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
